--- a/loaded_influencer_data/skincare.girl312/skincare.girl312_video.xlsx
+++ b/loaded_influencer_data/skincare.girl312/skincare.girl312_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7485747899758857494</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927</v>
+        <v>1165</v>
       </c>
       <c r="C2" t="n">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>30.09708737864078</v>
+        <v>27.38197424892704</v>
       </c>
       <c r="I2" t="n">
-        <v>13.91585760517799</v>
+        <v>13.04721030042919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>16.18122977346278</v>
+        <v>14.33476394849785</v>
       </c>
       <c r="L2" t="n">
-        <v>3.667745415318231</v>
+        <v>3.261802575107296</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -553,24 +553,24 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/photo/7482345851084426518</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>23.51485148514851</v>
+        <v>25.3968253968254</v>
       </c>
       <c r="I3" t="n">
-        <v>16.33663366336634</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.178217821782177</v>
+        <v>7.029478458049887</v>
       </c>
       <c r="L3" t="n">
-        <v>2.722772277227723</v>
+        <v>2.494331065759637</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,820 +610,820 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7489587561082424598</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>322</v>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sometimes just a little is enough if you build that healthy skin before! I recently start to use the anua 77% and they so good, gentle exfoliation and very good for my dry skin!</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>32.60869565217391</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19.87577639751553</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.73291925465838</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.416149068322981</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7489152803399568662</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>361</v>
+      </c>
+      <c r="C5" t="n">
+        <v>76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 products and 1 device Can make your skin glow? Can PDRN cange your skin? Well check it out! @Medicube Global</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>36.56509695290859</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.51246537396122</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.601108033240997</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7488672304667397398</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>565</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>61</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Just another day in my life🤣🤣🤣#glowingskin #koreanskincare #skincare #skincareproductsmusthave</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>28.49557522123894</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.69911504424779</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.79646017699115</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.008849557522124</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7488438706215456022</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>372</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>@PESTLO_OFFICIAL if you send me this, Thank you, if anyone else send me this, thank you! This baby collagen glowing mask is absolutely amazing, right up my street! You can grab one on amazon yourself trust me you will love it!</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>41.93548387096774</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21.7741935483871</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20.16129032258064</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.032258064516129</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7488315191893953814</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>395</v>
+      </c>
+      <c r="C8" t="n">
+        <v>71</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>@Euphoric Rain together with a clinic organise a Mother’s Day competition, I was lucky to win it and I received my mystery box today! Exploding the fact that the owner of this brand is a very supportive person, kind and generous! This is the first time in a long time when I try something that is not Korean, and let me tell you that is absolutely amazing, I love the packaging and the oil smells unreal! I can’t wait to use it for facial massage and daily use! I’m so thankful and grateful for this! Thank you💛💛💛</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>34.93670886075949</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.9746835443038</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16.96202531645569</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.30379746835443</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7488295416535043350</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>404</v>
+      </c>
+      <c r="C9" t="n">
+        <v>85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>I chose peace!🤣🤣🤣#skincare #koreanskincare #viralvideos #skincareproductsmusthave</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>31.18811881188119</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21.03960396039604</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.14851485148515</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.97029702970297</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7488099133908077846</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>461</v>
+      </c>
+      <c r="C10" t="n">
+        <v>86</v>
+      </c>
+      <c r="D10" t="n">
+        <v>61</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>For all the people back there! Think before you speak! #skincare #koreanskincare #viralvideos</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>31.88720173535792</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18.65509761388286</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13.23210412147506</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.603036876355748</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7486177880234265878</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B11" t="n">
         <v>320</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C11" t="n">
         <v>71</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D11" t="n">
         <v>59</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>16</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Please help!!!! #smallbusiness #advice #help</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H11" t="n">
         <v>40.625</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I11" t="n">
         <v>22.1875</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>18.4375</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L11" t="n">
         <v>5</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7485497952899730710</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B12" t="n">
         <v>514</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C12" t="n">
         <v>115</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D12" t="n">
         <v>107</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>24</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>This are some Brands and products that I think they very underrated and people should know more about them and definitely try it as their very good!</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H12" t="n">
         <v>43.19066147859922</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I12" t="n">
         <v>22.37354085603113</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>20.81712062256809</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L12" t="n">
         <v>4.669260700389105</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/photo/7485433334667939094</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B13" t="n">
         <v>515</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C13" t="n">
         <v>94</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D13" t="n">
         <v>86</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>18</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>From having the opportunity to try and use same products as Song of Skin, to her following me and liking my story? Am I dreaming? Wow</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H13" t="n">
         <v>34.95145631067961</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I13" t="n">
         <v>18.25242718446602</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>16.69902912621359</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L13" t="n">
         <v>3.495145631067961</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/photo/7485122077926722838</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B14" t="n">
         <v>478</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C14" t="n">
         <v>111</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D14" t="n">
         <v>71</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>22</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Have you done your collage with your favourite skincare?❤️@Medicube Global @Arencia @anua_global</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H14" t="n">
         <v>38.07531380753138</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I14" t="n">
         <v>23.22175732217573</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>14.85355648535565</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L14" t="n">
         <v>4.602510460251046</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7485031940719136022</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B15" t="n">
         <v>418</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C15" t="n">
         <v>101</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D15" t="n">
         <v>80</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>23</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Today is just feels different, and I decided to share as always my routine but today I wanted to share also that I write, I do poems and also story’s from my life! Will switch a bit from the usual content… see how this will go!</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H15" t="n">
         <v>43.30143540669857</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I15" t="n">
         <v>24.16267942583732</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>19.13875598086124</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L15" t="n">
         <v>5.502392344497608</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7484713166300007702</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B16" t="n">
         <v>436</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C16" t="n">
         <v>78</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D16" t="n">
         <v>76</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>20</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Decorate my @Purcell colostrum pore defence with me! ❤️ #korean #skincare #glassskin #glow #purcell</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H16" t="n">
         <v>35.3211009174312</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I16" t="n">
         <v>17.88990825688073</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>17.43119266055046</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L16" t="n">
         <v>4.587155963302752</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7484537945957993750</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B17" t="n">
         <v>434</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C17" t="n">
         <v>108</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D17" t="n">
         <v>88</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>20</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>And this quick I did my skincare routine 🥰 #korean #skincare #glassskin #glow #device @Medicube Global</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H17" t="n">
         <v>45.16129032258064</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I17" t="n">
         <v>24.88479262672811</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>20.27649769585253</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L17" t="n">
         <v>4.608294930875577</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7483209869617581334</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B18" t="n">
         <v>389</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C18" t="n">
         <v>89</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D18" t="n">
         <v>57</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>18</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Benefits of Sea Moss Gel
 Immerse yourself in the goodness of Sea moss gel, the ultimate nutrient powerhouse your body needs. Let's have a brief look into what benefits this product promises!</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H18" t="n">
         <v>37.53213367609254</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I18" t="n">
         <v>22.87917737789203</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>14.65295629820051</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L18" t="n">
         <v>4.627249357326478</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7483108854641741078</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B19" t="n">
         <v>410</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C19" t="n">
         <v>88</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D19" t="n">
         <v>84</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>16</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Learn how to take care of your skin, educate yourself! @APRILSKIN USA @Medicube Global @DALBA</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H19" t="n">
         <v>41.95121951219512</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I19" t="n">
         <v>21.46341463414634</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>20.48780487804878</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L19" t="n">
         <v>3.902439024390244</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7483090802701372694</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B20" t="n">
         <v>345</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C20" t="n">
         <v>71</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D20" t="n">
         <v>40</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>11</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Hold your horses those who send me messages! I’m happily in a relationship! Bye Felicia! #korean #skincare</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>32.17391304347826</v>
-      </c>
-      <c r="I13" t="n">
-        <v>20.57971014492754</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11.59420289855072</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.188405797101449</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7482738553072520470</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>376</v>
-      </c>
-      <c r="C14" t="n">
-        <v>84</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>21</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>This is one of my favourite Irish song! And as St Patrick is here I decided to do a green skincare routine using this amazing product from</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>43.61702127659575</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22.34042553191489</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>21.27659574468085</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.585106382978723</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7482115327657118998</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>424</v>
-      </c>
-      <c r="C15" t="n">
-        <v>90</v>
-      </c>
-      <c r="D15" t="n">
-        <v>62</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>19</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>This was the song that made me learn Spanish, I though I will sing this song for a man, but I end up singing for a cream!</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>35.84905660377358</v>
-      </c>
-      <c r="I15" t="n">
-        <v>21.22641509433962</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14.62264150943396</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.481132075471698</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7482044912507030806</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>429</v>
-      </c>
-      <c r="C16" t="n">
-        <v>107</v>
-      </c>
-      <c r="D16" t="n">
-        <v>102</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>29</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Lately didn’t feel so well and I ignored my skin, today I had a bit of extra energy and did my routine!</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>48.71794871794872</v>
-      </c>
-      <c r="I16" t="n">
-        <v>24.94172494172494</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>23.77622377622378</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.75990675990676</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2025-03-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7481007077150838038</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>553</v>
-      </c>
-      <c r="C17" t="n">
-        <v>128</v>
-      </c>
-      <c r="D17" t="n">
-        <v>110</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>27</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Every girl favourite colour 💕💞💗@APRILSKIN USA @Medicube Global @anua_global</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>43.03797468354431</v>
-      </c>
-      <c r="I17" t="n">
-        <v>23.14647377938517</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>19.89150090415913</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.882459312839059</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7480505038842891542</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>662</v>
-      </c>
-      <c r="C18" t="n">
-        <v>132</v>
-      </c>
-      <c r="D18" t="n">
-        <v>108</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>25</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Fade hyperpigmentation in 7 days with @APRILSKIN USA APRILSKIN Spicy Jelly serum &amp; Glazed Creamy Toner, The APRILSKIN TXA Serum provides a gentle, pleasant tingling sensation and is not painful to use. The APRILSKIN TXA line contains 99% pure TXA and 5% Niacinamide, making it a versatile solution for acne-prone skin and overall skin improvement.The peoducts are not out yet, but will be soon!🔜</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>36.25377643504532</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19.93957703927493</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>16.31419939577039</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.77643504531722</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7480274194123541782</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>550</v>
-      </c>
-      <c r="C19" t="n">
-        <v>48</v>
-      </c>
-      <c r="D19" t="n">
-        <v>36</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Do you know the benefits of the collagen? May improve skin health. Collagen is a major component of your skin. ...</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>15.27272727272727</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8.727272727272728</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.545454545454546</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7479920921579359510</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>380</v>
-      </c>
-      <c r="C20" t="n">
-        <v>48</v>
-      </c>
-      <c r="D20" t="n">
-        <v>36</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1433,1534 +1433,1583 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>Hold your horses those who send me messages! I’m happily in a relationship! Bye Felicia! #korean #skincare</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>32.17391304347826</v>
+      </c>
+      <c r="I20" t="n">
+        <v>20.57971014492754</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11.59420289855072</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.188405797101449</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7482738553072520470</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>376</v>
+      </c>
+      <c r="C21" t="n">
+        <v>84</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>21</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>This is one of my favourite Irish song! And as St Patrick is here I decided to do a green skincare routine using this amazing product from</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>43.61702127659575</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22.34042553191489</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.585106382978723</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7482115327657118998</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>424</v>
+      </c>
+      <c r="C22" t="n">
+        <v>90</v>
+      </c>
+      <c r="D22" t="n">
+        <v>62</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>19</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>This was the song that made me learn Spanish, I though I will sing this song for a man, but I end up singing for a cream!</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>35.84905660377358</v>
+      </c>
+      <c r="I22" t="n">
+        <v>21.22641509433962</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14.62264150943396</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.481132075471698</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7482044912507030806</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>429</v>
+      </c>
+      <c r="C23" t="n">
+        <v>107</v>
+      </c>
+      <c r="D23" t="n">
+        <v>102</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Lately didn’t feel so well and I ignored my skin, today I had a bit of extra energy and did my routine!</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>48.71794871794872</v>
+      </c>
+      <c r="I23" t="n">
+        <v>24.94172494172494</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>23.77622377622378</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.75990675990676</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7481007077150838038</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>553</v>
+      </c>
+      <c r="C24" t="n">
+        <v>128</v>
+      </c>
+      <c r="D24" t="n">
+        <v>110</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>27</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Every girl favourite colour 💕💞💗@APRILSKIN USA @Medicube Global @anua_global</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>43.03797468354431</v>
+      </c>
+      <c r="I24" t="n">
+        <v>23.14647377938517</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>19.89150090415913</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.882459312839059</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7480505038842891542</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>662</v>
+      </c>
+      <c r="C25" t="n">
+        <v>132</v>
+      </c>
+      <c r="D25" t="n">
+        <v>108</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>25</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fade hyperpigmentation in 7 days with @APRILSKIN USA APRILSKIN Spicy Jelly serum &amp; Glazed Creamy Toner, The APRILSKIN TXA Serum provides a gentle, pleasant tingling sensation and is not painful to use. The APRILSKIN TXA line contains 99% pure TXA and 5% Niacinamide, making it a versatile solution for acne-prone skin and overall skin improvement.The peoducts are not out yet, but will be soon!🔜</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>36.25377643504532</v>
+      </c>
+      <c r="I25" t="n">
+        <v>19.93957703927493</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>16.31419939577039</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.77643504531722</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7480274194123541782</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>550</v>
+      </c>
+      <c r="C26" t="n">
+        <v>48</v>
+      </c>
+      <c r="D26" t="n">
+        <v>36</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Do you know the benefits of the collagen? May improve skin health. Collagen is a major component of your skin. ...</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
+        <v>15.27272727272727</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.727272727272728</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.545454545454546</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare.girl312/video/7479920921579359510</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>380</v>
+      </c>
+      <c r="C27" t="n">
+        <v>48</v>
+      </c>
+      <c r="D27" t="n">
+        <v>36</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Do you know the benefits of the collagen? May improve skin health. Collagen is a major component of your skin. ...</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>22.10526315789474</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I27" t="n">
         <v>12.63157894736842</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>9.473684210526317</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L27" t="n">
         <v>2.894736842105263</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7479791463195315478</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>395</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>87</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>84</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>20</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>My night time routine has just few ingredients in! Retinal, niacinamide, ceremide!@Medicube Global</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>43.29113924050633</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I28" t="n">
         <v>22.0253164556962</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>21.26582278481013</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L28" t="n">
         <v>5.063291139240507</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7479365032078314774</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B29" t="n">
         <v>349</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C29" t="n">
         <v>83</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D29" t="n">
         <v>69</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>24</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>I feel like now that spring is here and summer is coming quick, we should start to speak more about spf and suncream, is the first time trying a product from</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H29" t="n">
         <v>43.55300859598854</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I29" t="n">
         <v>23.78223495702006</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>19.77077363896848</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L29" t="n">
         <v>6.876790830945559</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7479204036529491222</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B30" t="n">
         <v>361</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C30" t="n">
         <v>86</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D30" t="n">
         <v>48</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>12</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>For all the women’s out there! Happy International Women’s Day! Don’t settle for less, don’t let them make you feel small! You are strong and powerful!</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H30" t="n">
         <v>37.1191135734072</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I30" t="n">
         <v>23.82271468144044</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>13.29639889196676</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L30" t="n">
         <v>3.32409972299169</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7479065203179801878</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B31" t="n">
         <v>373</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C31" t="n">
         <v>68</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D31" t="n">
         <v>34</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>7</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>For the undercover accounts there! I know you watching! #koreanskincare #skincare #serum #glow</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H31" t="n">
         <v>27.34584450402145</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I31" t="n">
         <v>18.23056300268097</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>9.115281501340483</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L31" t="n">
         <v>1.876675603217158</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7478815317674806550</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B32" t="n">
         <v>407</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C32" t="n">
         <v>83</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D32" t="n">
         <v>61</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>17</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>I try the amazing PDRN 675 from @코스노리 @Cosnori US that it can be purchased from Amazon, and look at my skin! This year you know that I mentioned I want to use more PDRN on my skincare, this product is perfect, is recommended daily at pm routine however if your skin cannot accept the strength adapt how is better for you.</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H32" t="n">
         <v>35.38083538083538</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I32" t="n">
         <v>20.39312039312039</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>14.98771498771499</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L32" t="n">
         <v>4.176904176904177</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7478749122657373462</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>320</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>84</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>81</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>15</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>@Jumiso Official @JUMISO Influencers @YesStyle I had the opportunity to try this this toner! This reminds me of a very similar brand but this toner is more lighter, I absolutely love it!</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>51.5625</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>26.25</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>25.3125</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>4.6875</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7478016080317975831</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B34" t="n">
         <v>424</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C34" t="n">
         <v>84</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D34" t="n">
         <v>61</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>20</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>What an amazing product this is, I love this brand so much and I think is very underrated,Thanks to @cosmetic_jolse I had the chance to try it. I absolutely love it!</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H34" t="n">
         <v>34.19811320754717</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I34" t="n">
         <v>19.81132075471698</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>14.38679245283019</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L34" t="n">
         <v>4.716981132075472</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7477910646940634390</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B35" t="n">
         <v>353</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C35" t="n">
         <v>100</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D35" t="n">
         <v>89</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>23</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>My skin is going through some rough times now, i cut off all the sugar plus fasting plus my PCOS🥺 #skincare</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H35" t="n">
         <v>53.54107648725213</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I35" t="n">
         <v>28.328611898017</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>25.21246458923513</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L35" t="n">
         <v>6.515580736543909</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7477702951184665878</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B36" t="n">
         <v>410</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C36" t="n">
         <v>70</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D36" t="n">
         <v>58</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>14</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>@AXIS-Y and @YesStyle send me this amazing suncream❤️ I wanted to try this amazing brand for so long, having this opportunity made me so grateful, The suncream is very light weight and even a drop is cover a lot❤️ can’t wait to add this on my daily skincare routine.</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H36" t="n">
         <v>31.21951219512195</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I36" t="n">
         <v>17.07317073170732</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>14.14634146341463</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L36" t="n">
         <v>3.414634146341464</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7477267621805690134</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B37" t="n">
         <v>444</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C37" t="n">
         <v>87</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D37" t="n">
         <v>78</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>21</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Just a quick night time skincare routine! #skincare #koreanskincare #medicube #grow #glow #glassskin</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H37" t="n">
         <v>37.16216216216216</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I37" t="n">
         <v>19.59459459459459</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>17.56756756756757</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L37" t="n">
         <v>4.72972972972973</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7476608533895613718</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B38" t="n">
         <v>409</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C38" t="n">
         <v>69</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D38" t="n">
         <v>56</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>17</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>I recive this eyelashes serum from @Cosnori US @코스노리 I start to use it 2 weeks ago, is recommended to use it twice a day for 1 month, look at my eyelashes how much grow and is not even a month yet! I absolutely love it specifically that I can’t wear mascara or fake lashes!</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H38" t="n">
         <v>30.56234718826406</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I38" t="n">
         <v>16.87041564792176</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>13.6919315403423</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L38" t="n">
         <v>4.156479217603912</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7476233534827531542</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B39" t="n">
         <v>473</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C39" t="n">
         <v>69</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D39" t="n">
         <v>66</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>14</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>This is your chance to grab this offer!
 Go on @YesStyle and make sure you use:
 Ultra Tune 40.68: ULTRA20</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H39" t="n">
         <v>28.54122621564482</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I39" t="n">
         <v>14.5877378435518</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>13.95348837209302</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L39" t="n">
         <v>2.959830866807611</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7476131895231909143</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B40" t="n">
         <v>445</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C40" t="n">
         <v>87</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D40" t="n">
         <v>79</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>13</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>This is not gifted I pay for it @STYLEKOREAN had this offer out 147£ for all of this! @Medicube Global I forgive you now, I got it myself! Freebies from</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H40" t="n">
         <v>37.30337078651685</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I40" t="n">
         <v>19.55056179775281</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>17.75280898876404</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L40" t="n">
         <v>2.921348314606742</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7475729430300593430</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B41" t="n">
         <v>415</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C41" t="n">
         <v>72</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D41" t="n">
         <v>50</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>18</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>@ohmybeloved send me this beautiful products from @haruharu wonder , I had the chance to try the essence before and I absolutely love it, the retinol serum is new and is a easy retinol specially for beginners!</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H41" t="n">
         <v>29.39759036144579</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I41" t="n">
         <v>17.34939759036144</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>12.04819277108434</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L41" t="n">
         <v>4.337349397590361</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7475658912017173782</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B42" t="n">
         <v>359</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C42" t="n">
         <v>76</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D42" t="n">
         <v>57</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>17</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>I finally put my hands on this duo from @KAINE 카이네 Thank you!
 #caffetinal #slowaging #kombuampoule</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H42" t="n">
         <v>37.04735376044568</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I42" t="n">
         <v>21.16991643454039</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>15.87743732590529</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L42" t="n">
         <v>4.735376044568245</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7475443352696114454</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B43" t="n">
         <v>353</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C43" t="n">
         <v>71</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D43" t="n">
         <v>47</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>10</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Boom #skincare #skincaretips #salmonpdrn #glassskin #korean</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H43" t="n">
         <v>33.42776203966006</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I43" t="n">
         <v>20.11331444759207</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>13.31444759206799</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L43" t="n">
         <v>2.8328611898017</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7475423288424942870</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B44" t="n">
         <v>388</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C44" t="n">
         <v>38</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D44" t="n">
         <v>7</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>@Anna-Maria Braga ❤️ #nails #nailtech #trainer</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H44" t="n">
         <v>11.5979381443299</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I44" t="n">
         <v>9.793814432989691</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1.804123711340206</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L44" t="n">
         <v>0.7731958762886598</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7475336077943917846</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B45" t="n">
         <v>424</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C45" t="n">
         <v>81</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D45" t="n">
         <v>56</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>14</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>If you know you know! Mi Dios me bendiga! #latina #korean #skincare #skincaretips #pdrn #salmonpdrn</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H45" t="n">
         <v>32.31132075471698</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I45" t="n">
         <v>19.10377358490566</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>13.20754716981132</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L45" t="n">
         <v>3.30188679245283</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7475326761941732630</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B46" t="n">
         <v>438</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C46" t="n">
         <v>95</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D46" t="n">
         <v>75</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>16</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>This cream from @iUNIK is amazing as a barrier cream, very thick and very good specially with the cold weather. Thank you for giving me the chance to try this, I absolutely love it!</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H46" t="n">
         <v>38.81278538812785</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I46" t="n">
         <v>21.68949771689498</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>17.12328767123288</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L46" t="n">
         <v>3.65296803652968</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7475108558992968983</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B47" t="n">
         <v>460</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C47" t="n">
         <v>76</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D47" t="n">
         <v>48</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>14</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>When Tiktok became more then an app and you meet amazing people! I’m so grateful for this! Thank you</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H47" t="n">
         <v>26.95652173913043</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I47" t="n">
         <v>16.52173913043478</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>10.43478260869565</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L47" t="n">
         <v>3.043478260869565</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7475033469370895638</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B48" t="n">
         <v>457</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C48" t="n">
         <v>93</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D48" t="n">
         <v>62</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>17</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Hope my boss doesn’t see this!🤣🤣 #korean #koreanskincare #glassskin #glowingskin #late</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H48" t="n">
         <v>33.91684901531728</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I48" t="n">
         <v>20.35010940919037</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>13.56673960612692</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L48" t="n">
         <v>3.719912472647703</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7474964310058355990</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B49" t="n">
         <v>479</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C49" t="n">
         <v>96</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D49" t="n">
         <v>96</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>23</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Glowing Skincare with @anua_global #skincare #kbeauty #anua #glassskin ##glassskinroutine</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H49" t="n">
         <v>40.08350730688935</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I49" t="n">
         <v>20.04175365344468</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>20.04175365344468</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L49" t="n">
         <v>4.801670146137787</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7474596156341849366</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B50" t="n">
         <v>420</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C50" t="n">
         <v>67</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D50" t="n">
         <v>68</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>18</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>My favourite brand @Centellian24_global in collaboration with @YesStyle send me this! Thank you! If you know me you know how much I love this brand ❤️</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H50" t="n">
         <v>32.14285714285715</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I50" t="n">
         <v>15.95238095238095</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>16.19047619047619</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L50" t="n">
         <v>4.285714285714286</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare.girl312/video/7473168617237007638</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B51" t="n">
         <v>397</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C51" t="n">
         <v>74</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D51" t="n">
         <v>58</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>19</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>If you know me, you know that I don’t wear fake lashes and not even mascara! @코스노리 @Cosnori US kindly gifted me this lash serum and is really helping my lashes, I hope this will give me long healthy lashes!</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H51" t="n">
         <v>33.24937027707809</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I51" t="n">
         <v>18.63979848866499</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>14.6095717884131</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L51" t="n">
         <v>4.785894206549118</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7472861974301379842</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>483</v>
-      </c>
-      <c r="C45" t="n">
-        <v>96</v>
-      </c>
-      <c r="D45" t="n">
-        <v>84</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>20</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>The perfect duo ever! I had the cream for ages now and I knew how good it is, but this week @cosmetic_jolse give me the chance to try the serum as well, what an amazing duo perfect for that glass skin!</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>37.26708074534162</v>
-      </c>
-      <c r="I45" t="n">
-        <v>19.87577639751553</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4.140786749482402</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7472810210567064855</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>387</v>
-      </c>
-      <c r="C46" t="n">
-        <v>90</v>
-      </c>
-      <c r="D46" t="n">
-        <v>66</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>14</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>@Centellian24_global @centellian24_official This is how much I love this cream! #skincare #koreanskincare</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>40.31007751937985</v>
-      </c>
-      <c r="I46" t="n">
-        <v>23.25581395348837</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>17.05426356589147</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.617571059431524</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7472445708021337366</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>420</v>
-      </c>
-      <c r="C47" t="n">
-        <v>84</v>
-      </c>
-      <c r="D47" t="n">
-        <v>71</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>13</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Another day another mask review thanks to @cosmetic_jolse If you know me you know I love a collagen masks and masks in general, I was so excited when</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>36.90476190476191</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>16.90476190476191</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.095238095238095</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7472365861165141270</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>480</v>
-      </c>
-      <c r="C48" t="n">
-        <v>82</v>
-      </c>
-      <c r="D48" t="n">
-        <v>64</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>18</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Thanks to @cosmetic_jolse I could try this!❤️ I knew this mask if @Skinfluencer favourite and in her we trust!</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>30.41666666666666</v>
-      </c>
-      <c r="I48" t="n">
-        <v>17.08333333333333</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7471939964134067478</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>490</v>
-      </c>
-      <c r="C49" t="n">
-        <v>79</v>
-      </c>
-      <c r="D49" t="n">
-        <v>52</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>19</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Thank you @KSECRET GLOBAL ❤️
-My skin got transformed in 7days #skincare #skintok #kbeauty #koreanskincare</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>26.73469387755102</v>
-      </c>
-      <c r="I49" t="n">
-        <v>16.12244897959184</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>10.61224489795918</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.877551020408163</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare.girl312/video/7471764739668872470</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>434</v>
-      </c>
-      <c r="C50" t="n">
-        <v>82</v>
-      </c>
-      <c r="D50" t="n">
-        <v>57</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>19</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>I’m so happy to share that I won the Review challenge giveaway from @cosmetic_jolse I can’t wait to try all this and share my opinion!❤️</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>32.02764976958525</v>
-      </c>
-      <c r="I50" t="n">
-        <v>18.89400921658986</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>13.13364055299539</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.377880184331797</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
         </is>
       </c>
     </row>
